--- a/va_facility_data_2025-02-20/Oscoda VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oscoda%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oscoda VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oscoda%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R39236019f702404d96cf3d791186a6c8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rce8fb6967aaa4f9fa5ab5819381e1c5b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf5a5483f44fe4a34a968ea25bc6ceda6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R73b57ccf846e45bf93ee291ff344c83c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb8e3473a0c284dcc98479d42c1e7b003"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R75f910679855458c94f3f4b1048b7ee7"/>
   </x:sheets>
 </x:workbook>
 </file>
